--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H2">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I2">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J2">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>1921.538095514192</v>
+        <v>3750.556405235594</v>
       </c>
       <c r="R2">
-        <v>1921.538095514192</v>
+        <v>33755.00764712034</v>
       </c>
       <c r="S2">
-        <v>0.00675413657455892</v>
+        <v>0.01067715100270855</v>
       </c>
       <c r="T2">
-        <v>0.00675413657455892</v>
+        <v>0.0128939463704254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H3">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I3">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J3">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>2152.059260396653</v>
+        <v>4013.635573334556</v>
       </c>
       <c r="R3">
-        <v>2152.059260396653</v>
+        <v>36122.72016001101</v>
       </c>
       <c r="S3">
-        <v>0.007564410091684234</v>
+        <v>0.01142608948008712</v>
       </c>
       <c r="T3">
-        <v>0.007564410091684234</v>
+        <v>0.01379837982459473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H4">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I4">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J4">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>1107.176297760212</v>
+        <v>2015.377543566816</v>
       </c>
       <c r="R4">
-        <v>1107.176297760212</v>
+        <v>18138.39789210134</v>
       </c>
       <c r="S4">
-        <v>0.003891684450412059</v>
+        <v>0.005737412808961352</v>
       </c>
       <c r="T4">
-        <v>0.003891684450412059</v>
+        <v>0.00692861729172631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H5">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I5">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J5">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>1317.228454198347</v>
+        <v>2302.58209519886</v>
       </c>
       <c r="R5">
-        <v>1317.228454198347</v>
+        <v>20723.23885678974</v>
       </c>
       <c r="S5">
-        <v>0.004630010146725742</v>
+        <v>0.006555031859340069</v>
       </c>
       <c r="T5">
-        <v>0.004630010146725742</v>
+        <v>0.007915990813403297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H6">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I6">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J6">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>2599.213395984152</v>
+        <v>4592.741527494401</v>
       </c>
       <c r="R6">
-        <v>2599.213395984152</v>
+        <v>27556.44916496641</v>
       </c>
       <c r="S6">
-        <v>0.009136140628116109</v>
+        <v>0.01307469865991464</v>
       </c>
       <c r="T6">
-        <v>0.009136140628116109</v>
+        <v>0.01052618270470878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H7">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I7">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J7">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>23838.57083493116</v>
+        <v>28628.10392289509</v>
       </c>
       <c r="R7">
-        <v>23838.57083493116</v>
+        <v>257652.9353060558</v>
       </c>
       <c r="S7">
-        <v>0.08379171016036356</v>
+        <v>0.08149899787649864</v>
       </c>
       <c r="T7">
-        <v>0.08379171016036356</v>
+        <v>0.09841986009155546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H8">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I8">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J8">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>26698.41271411644</v>
+        <v>30636.19471011064</v>
       </c>
       <c r="R8">
-        <v>26698.41271411644</v>
+        <v>275725.7523909958</v>
       </c>
       <c r="S8">
-        <v>0.0938439504353563</v>
+        <v>0.08721566661725352</v>
       </c>
       <c r="T8">
-        <v>0.0938439504353563</v>
+        <v>0.1053234264213828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H9">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I9">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J9">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>13735.61141594276</v>
+        <v>15383.43422340174</v>
       </c>
       <c r="R9">
-        <v>13735.61141594276</v>
+        <v>138450.9080106156</v>
       </c>
       <c r="S9">
-        <v>0.04828017495719894</v>
+        <v>0.04379383547310695</v>
       </c>
       <c r="T9">
-        <v>0.04828017495719894</v>
+        <v>0.05288633323648122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H10">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I10">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J10">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>16341.51510422774</v>
+        <v>17575.67475064004</v>
       </c>
       <c r="R10">
-        <v>16341.51510422774</v>
+        <v>158181.0727557603</v>
       </c>
       <c r="S10">
-        <v>0.05743983171961862</v>
+        <v>0.05003474498480122</v>
       </c>
       <c r="T10">
-        <v>0.05743983171961862</v>
+        <v>0.06042298346518458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H11">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I11">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J11">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>32245.79975797444</v>
+        <v>35056.52696132337</v>
       </c>
       <c r="R11">
-        <v>32245.79975797444</v>
+        <v>210339.1617679402</v>
       </c>
       <c r="S11">
-        <v>0.113342814295315</v>
+        <v>0.09979954746822724</v>
       </c>
       <c r="T11">
-        <v>0.113342814295315</v>
+        <v>0.08034665255563717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H12">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I12">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J12">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>10350.44886076163</v>
+        <v>11714.12373716773</v>
       </c>
       <c r="R12">
-        <v>10350.44886076163</v>
+        <v>105427.1136345096</v>
       </c>
       <c r="S12">
-        <v>0.0363814515969119</v>
+        <v>0.0333479768046032</v>
       </c>
       <c r="T12">
-        <v>0.0363814515969119</v>
+        <v>0.04027170022899046</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H13">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I13">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J13">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>11592.16118174512</v>
+        <v>12535.79966863231</v>
       </c>
       <c r="R13">
-        <v>11592.16118174512</v>
+        <v>112822.1970176908</v>
       </c>
       <c r="S13">
-        <v>0.04074602527974112</v>
+        <v>0.03568713853092508</v>
       </c>
       <c r="T13">
-        <v>0.04074602527974112</v>
+        <v>0.04309651986892015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H14">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I14">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J14">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>5963.853475800019</v>
+        <v>6294.634547955254</v>
       </c>
       <c r="R14">
-        <v>5963.853475800019</v>
+        <v>56651.71093159728</v>
       </c>
       <c r="S14">
-        <v>0.02096272823330749</v>
+        <v>0.0179196781260413</v>
       </c>
       <c r="T14">
-        <v>0.02096272823330749</v>
+        <v>0.02164017055428438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H15">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I15">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J15">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>7095.30858896229</v>
+        <v>7191.661360030143</v>
       </c>
       <c r="R15">
-        <v>7095.30858896229</v>
+        <v>64724.95224027129</v>
       </c>
       <c r="S15">
-        <v>0.02493975183753431</v>
+        <v>0.0204733500859222</v>
       </c>
       <c r="T15">
-        <v>0.02493975183753431</v>
+        <v>0.02472403714847329</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H16">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I16">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J16">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>14000.776459309</v>
+        <v>14344.52298085587</v>
       </c>
       <c r="R16">
-        <v>14000.776459309</v>
+        <v>86067.13788513522</v>
       </c>
       <c r="S16">
-        <v>0.04921222044819148</v>
+        <v>0.04083624438086551</v>
       </c>
       <c r="T16">
-        <v>0.04921222044819148</v>
+        <v>0.03287645708003904</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H17">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I17">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J17">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>11616.58336103427</v>
+        <v>14006.46340159233</v>
       </c>
       <c r="R17">
-        <v>11616.58336103427</v>
+        <v>126058.170614331</v>
       </c>
       <c r="S17">
-        <v>0.04083186835240897</v>
+        <v>0.0398738503289669</v>
       </c>
       <c r="T17">
-        <v>0.04083186835240897</v>
+        <v>0.04815247883949986</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H18">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I18">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J18">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>13010.19004236486</v>
+        <v>14988.93329180799</v>
       </c>
       <c r="R18">
-        <v>13010.19004236486</v>
+        <v>134900.3996262719</v>
       </c>
       <c r="S18">
-        <v>0.04573034519182125</v>
+        <v>0.04267076317069984</v>
       </c>
       <c r="T18">
-        <v>0.04573034519182125</v>
+        <v>0.05153008810763798</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H19">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I19">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J19">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>6693.390981067751</v>
+        <v>7526.433082023328</v>
       </c>
       <c r="R19">
-        <v>6693.390981067751</v>
+        <v>67737.89773820995</v>
       </c>
       <c r="S19">
-        <v>0.02352702605198942</v>
+        <v>0.02142638420698443</v>
       </c>
       <c r="T19">
-        <v>0.02352702605198942</v>
+        <v>0.02587494068472978</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H20">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I20">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J20">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>7963.253072860243</v>
+        <v>8598.999284624477</v>
       </c>
       <c r="R20">
-        <v>7963.253072860243</v>
+        <v>77390.99356162029</v>
       </c>
       <c r="S20">
-        <v>0.0279905451562133</v>
+        <v>0.02447978484097777</v>
       </c>
       <c r="T20">
-        <v>0.0279905451562133</v>
+        <v>0.02956228986731095</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H21">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I21">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J21">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>15713.44287061202</v>
+        <v>17151.60609983755</v>
       </c>
       <c r="R21">
-        <v>15713.44287061202</v>
+        <v>102909.6365990253</v>
       </c>
       <c r="S21">
-        <v>0.05523218064341463</v>
+        <v>0.04882749877092947</v>
       </c>
       <c r="T21">
-        <v>0.05523218064341463</v>
+        <v>0.03931005879718703</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H22">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I22">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J22">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>12365.27649633436</v>
+        <v>20909.0963494821</v>
       </c>
       <c r="R22">
-        <v>12365.27649633436</v>
+        <v>125454.5780968926</v>
       </c>
       <c r="S22">
-        <v>0.04346349751451435</v>
+        <v>0.05952438916582006</v>
       </c>
       <c r="T22">
-        <v>0.04346349751451435</v>
+        <v>0.04792191484049855</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H23">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I23">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J23">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>13848.70164865535</v>
+        <v>22375.74478213706</v>
       </c>
       <c r="R23">
-        <v>13848.70164865535</v>
+        <v>134254.4686928224</v>
       </c>
       <c r="S23">
-        <v>0.04867768301533874</v>
+        <v>0.06369967013519376</v>
       </c>
       <c r="T23">
-        <v>0.04867768301533874</v>
+        <v>0.05128335141890823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H24">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I24">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J24">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>7124.782529138115</v>
+        <v>11235.59245241483</v>
       </c>
       <c r="R24">
-        <v>7124.782529138115</v>
+        <v>67413.55471448896</v>
       </c>
       <c r="S24">
-        <v>0.02504335166613133</v>
+        <v>0.03198568539106933</v>
       </c>
       <c r="T24">
-        <v>0.02504335166613133</v>
+        <v>0.02575104613263251</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H25">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I25">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J25">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>8476.487706918517</v>
+        <v>12836.73825406209</v>
       </c>
       <c r="R25">
-        <v>8476.487706918517</v>
+        <v>77020.42952437252</v>
       </c>
       <c r="S25">
-        <v>0.02979454624331938</v>
+        <v>0.03654385587416777</v>
       </c>
       <c r="T25">
-        <v>0.02979454624331938</v>
+        <v>0.02942073952689831</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H26">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I26">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J26">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>16726.1801310891</v>
+        <v>25604.22100907341</v>
       </c>
       <c r="R26">
-        <v>16726.1801310891</v>
+        <v>102416.8840362936</v>
       </c>
       <c r="S26">
-        <v>0.05879191530981294</v>
+        <v>0.07289055395593419</v>
       </c>
       <c r="T26">
-        <v>0.05879191530981294</v>
+        <v>0.03912183412888976</v>
       </c>
     </row>
   </sheetData>
